--- a/omodata.xlsx
+++ b/omodata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t xml:space="preserve">Autonomías</t>
   </si>
@@ -60,37 +60,111 @@
 21 a 24000</t>
   </si>
   <si>
+    <t xml:space="preserve">Si</t>
+  </si>
+  <si>
     <t xml:space="preserve">Waldos Strada</t>
   </si>
   <si>
+    <t xml:space="preserve">Walmart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No tiene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 meses</t>
+  </si>
+  <si>
     <t xml:space="preserve">6 a 9000</t>
   </si>
   <si>
-    <t xml:space="preserve">Walmart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 meses</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chedraui</t>
   </si>
   <si>
+    <t xml:space="preserve">El Valeroso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liverpool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr Volt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 año</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 a 24000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elektra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activación de producto próximamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No hay producto en existencia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Soriana</t>
   </si>
   <si>
-    <t xml:space="preserve">Mega</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liverpool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 año</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 a 24000</t>
+    <t xml:space="preserve">Taller de servicio de LIVERPOOL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Taller de servicio de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CHEDRAHUI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Taller de servicio de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WALDOS</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">REMO MOTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 a 13000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tienda 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tienda 2</t>
   </si>
   <si>
     <t xml:space="preserve">Zonas de Afluencia</t>
@@ -125,11 +199,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -146,13 +221,46 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFEEEEEE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFEEEEEE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFEEEEEE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -189,17 +297,33 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -207,15 +331,35 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -227,6 +371,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -235,183 +439,335 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C5:J24"/>
+  <dimension ref="C1:J25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.47"/>
   </cols>
   <sheetData>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+    <row r="1" customFormat="false" ht="10.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="16.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D3" s="2"/>
+      <c r="E3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="34.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="2" t="s">
+    <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I4" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="1" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="E14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" s="6" customFormat="true" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C21" s="10"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" s="14" customFormat="true" ht="23.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D22" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="34.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" customFormat="false" ht="23.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" customFormat="false" ht="23.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E6:E12"/>
+  <mergeCells count="14">
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
